--- a/data/trans_orig/P5_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P5_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D55DB6-7001-4240-AFD7-BD4AD5A96EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{568207BE-6632-4A04-8A34-62E0E5C8819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0BD59857-F1AC-4BFF-BEA0-1514568A9F46}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{535CFF46-D28B-43BA-9499-906E3BBD87D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
-  <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,25 @@
     <t>29,25%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>37,24%</t>
   </si>
   <si>
     <t>31,37%</t>
   </si>
   <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +104,25 @@
     <t>70,75%</t>
   </si>
   <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
   </si>
   <si>
     <t>66,4%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
+    <t>62,76%</t>
   </si>
   <si>
     <t>68,63%</t>
   </si>
   <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1453 +134,1429 @@
     <t>27,93%</t>
   </si>
   <si>
-    <t>24,84%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
   </si>
   <si>
     <t>68,37%</t>
   </si>
   <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2012 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
   </si>
   <si>
     <t>36,44%</t>
   </si>
   <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
   </si>
   <si>
     <t>63,56%</t>
   </si>
   <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
   </si>
   <si>
     <t>35,98%</t>
   </si>
   <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
   </si>
   <si>
     <t>64,02%</t>
   </si>
   <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
   </si>
   <si>
     <t>63,7%</t>
   </si>
   <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2016 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2023 (Tasa respuesta: 99,95%)</t>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>12,74%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
+    <t>81,26%</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +1968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8313E5E-AEE3-4FBB-A596-0A59A1946961}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56490889-724B-4586-B10F-C0078B3ACC6E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2140,10 +2110,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>306</v>
@@ -2152,19 +2122,19 @@
         <v>301598</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>354</v>
@@ -2173,13 +2143,13 @@
         <v>349544</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>328</v>
@@ -2188,13 +2158,13 @@
         <v>310410</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>682</v>
@@ -2203,13 +2173,13 @@
         <v>659955</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2194,13 @@
         <v>494064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>489</v>
@@ -2239,13 +2209,13 @@
         <v>467489</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>988</v>
@@ -2254,18 +2224,18 @@
         <v>961553</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2277,13 +2247,13 @@
         <v>205426</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>184</v>
@@ -2292,13 +2262,13 @@
         <v>199481</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>377</v>
@@ -2307,19 +2277,19 @@
         <v>404907</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>510</v>
@@ -2328,13 +2298,13 @@
         <v>530063</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>407</v>
@@ -2343,13 +2313,13 @@
         <v>426013</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>917</v>
@@ -2358,13 +2328,13 @@
         <v>956075</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2349,13 @@
         <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>591</v>
@@ -2394,13 +2364,13 @@
         <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1294</v>
@@ -2409,18 +2379,18 @@
         <v>1360982</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2432,13 +2402,13 @@
         <v>191276</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>250</v>
@@ -2447,13 +2417,13 @@
         <v>259056</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>426</v>
@@ -2462,19 +2432,19 @@
         <v>450332</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>437</v>
@@ -2483,13 +2453,13 @@
         <v>447392</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>408</v>
@@ -2498,13 +2468,13 @@
         <v>430688</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>845</v>
@@ -2513,13 +2483,13 @@
         <v>878080</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2504,13 @@
         <v>638668</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>658</v>
@@ -2549,13 +2519,13 @@
         <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1271</v>
@@ -2564,18 +2534,18 @@
         <v>1328412</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2587,13 +2557,13 @@
         <v>169277</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -2602,13 +2572,13 @@
         <v>184088</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>337</v>
@@ -2617,19 +2587,19 @@
         <v>353365</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>326</v>
@@ -2638,13 +2608,13 @@
         <v>349870</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>323</v>
@@ -2653,13 +2623,13 @@
         <v>331554</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>649</v>
@@ -2668,13 +2638,13 @@
         <v>681424</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2659,13 @@
         <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>502</v>
@@ -2704,13 +2674,13 @@
         <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>986</v>
@@ -2719,18 +2689,18 @@
         <v>1034789</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2742,13 +2712,13 @@
         <v>117153</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>145</v>
@@ -2757,13 +2727,13 @@
         <v>148221</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>262</v>
@@ -2772,19 +2742,19 @@
         <v>265373</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>275</v>
@@ -2793,13 +2763,13 @@
         <v>269557</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>251</v>
@@ -2808,13 +2778,13 @@
         <v>255765</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>526</v>
@@ -2823,13 +2793,13 @@
         <v>525323</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2814,13 @@
         <v>386710</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>396</v>
@@ -2859,13 +2829,13 @@
         <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>788</v>
@@ -2874,18 +2844,18 @@
         <v>790696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2897,13 +2867,13 @@
         <v>139728</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>210</v>
@@ -2912,13 +2882,13 @@
         <v>214765</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>360</v>
@@ -2927,19 +2897,19 @@
         <v>354493</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>373</v>
@@ -2948,13 +2918,13 @@
         <v>362738</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>451</v>
@@ -2963,13 +2933,13 @@
         <v>462077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>824</v>
@@ -2978,13 +2948,13 @@
         <v>824815</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2969,13 @@
         <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -3014,13 +2984,13 @@
         <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1184</v>
@@ -3029,13 +2999,13 @@
         <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,16 +3019,16 @@
         <v>939</v>
       </c>
       <c r="D22" s="7">
-        <v>967378</v>
+        <v>967379</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>1129</v>
@@ -3067,13 +3037,13 @@
         <v>1162691</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>2068</v>
@@ -3082,19 +3052,19 @@
         <v>2130069</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>2275</v>
@@ -3103,13 +3073,13 @@
         <v>2309165</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>2168</v>
@@ -3118,28 +3088,28 @@
         <v>2216507</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>4443</v>
       </c>
       <c r="N23" s="7">
-        <v>4525672</v>
+        <v>4525671</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,16 +3121,16 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>3297</v>
@@ -3169,33 +3139,33 @@
         <v>3379198</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF5CD86-DCB5-42E7-AED2-65EB6ACD7098}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C27F8C-67CA-4DB5-9A1E-199D1B54C43F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3234,7 +3204,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3341,13 +3311,13 @@
         <v>163870</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>154</v>
@@ -3356,13 +3326,13 @@
         <v>157912</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>317</v>
@@ -3371,19 +3341,19 @@
         <v>321782</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>282</v>
@@ -3392,13 +3362,13 @@
         <v>289324</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -3407,13 +3377,13 @@
         <v>271304</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>548</v>
@@ -3422,13 +3392,13 @@
         <v>560628</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3413,13 @@
         <v>453194</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>420</v>
@@ -3458,13 +3428,13 @@
         <v>429216</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>865</v>
@@ -3473,18 +3443,18 @@
         <v>882410</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3496,13 +3466,13 @@
         <v>271972</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>220</v>
@@ -3511,13 +3481,13 @@
         <v>232271</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>476</v>
@@ -3526,19 +3496,19 @@
         <v>504242</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>410</v>
@@ -3547,13 +3517,13 @@
         <v>413572</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>351</v>
@@ -3562,13 +3532,13 @@
         <v>377984</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>761</v>
@@ -3577,13 +3547,13 @@
         <v>791557</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3568,13 @@
         <v>685544</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>571</v>
@@ -3613,13 +3583,13 @@
         <v>610255</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1237</v>
@@ -3628,18 +3598,18 @@
         <v>1295799</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3651,28 +3621,28 @@
         <v>261567</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>273</v>
       </c>
       <c r="I10" s="7">
-        <v>287587</v>
+        <v>287586</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>526</v>
@@ -3681,19 +3651,19 @@
         <v>549153</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>397</v>
@@ -3702,13 +3672,13 @@
         <v>419569</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>393</v>
@@ -3717,13 +3687,13 @@
         <v>421544</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>790</v>
@@ -3732,13 +3702,13 @@
         <v>841113</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,28 +3723,28 @@
         <v>681136</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>666</v>
       </c>
       <c r="I12" s="7">
-        <v>709131</v>
+        <v>709130</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1316</v>
@@ -3783,18 +3753,18 @@
         <v>1390266</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3806,13 +3776,13 @@
         <v>246365</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>234</v>
@@ -3821,13 +3791,13 @@
         <v>269027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>460</v>
@@ -3836,19 +3806,19 @@
         <v>515392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>321</v>
@@ -3857,13 +3827,13 @@
         <v>367228</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>304</v>
@@ -3872,13 +3842,13 @@
         <v>346111</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>625</v>
@@ -3887,13 +3857,13 @@
         <v>713339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3878,13 @@
         <v>613593</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>538</v>
@@ -3923,13 +3893,13 @@
         <v>615138</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1085</v>
@@ -3938,18 +3908,18 @@
         <v>1228731</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3961,13 +3931,13 @@
         <v>186692</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
@@ -3976,13 +3946,13 @@
         <v>175410</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>333</v>
@@ -3991,19 +3961,19 @@
         <v>362102</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>218</v>
@@ -4012,13 +3982,13 @@
         <v>242737</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>246</v>
@@ -4027,13 +3997,13 @@
         <v>270332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>464</v>
@@ -4042,13 +4012,13 @@
         <v>513070</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4033,13 @@
         <v>429429</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>404</v>
@@ -4078,13 +4048,13 @@
         <v>445742</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>797</v>
@@ -4093,18 +4063,18 @@
         <v>875172</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4116,13 +4086,13 @@
         <v>228168</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>274</v>
@@ -4131,13 +4101,13 @@
         <v>293387</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>481</v>
@@ -4146,19 +4116,19 @@
         <v>521556</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>296</v>
@@ -4167,13 +4137,13 @@
         <v>330301</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H20" s="7">
         <v>420</v>
@@ -4182,13 +4152,13 @@
         <v>449588</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
         <v>716</v>
@@ -4197,13 +4167,13 @@
         <v>779888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4188,13 @@
         <v>558469</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>694</v>
@@ -4233,13 +4203,13 @@
         <v>742975</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1197</v>
@@ -4248,13 +4218,13 @@
         <v>1301444</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4241,13 @@
         <v>1358635</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>1313</v>
@@ -4286,13 +4256,13 @@
         <v>1415593</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>2593</v>
@@ -4301,19 +4271,19 @@
         <v>2774228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>1924</v>
@@ -4322,13 +4292,13 @@
         <v>2062730</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>1980</v>
@@ -4337,13 +4307,13 @@
         <v>2136865</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>3904</v>
@@ -4352,13 +4322,13 @@
         <v>4199595</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4343,13 @@
         <v>3421365</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>3293</v>
@@ -4388,13 +4358,13 @@
         <v>3552458</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>6497</v>
@@ -4403,18 +4373,18 @@
         <v>6973823</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4436,7 +4406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF5EF4B-4A19-4644-8448-806EE2701963}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E76C5A-DBF8-4766-B707-D5ADE886DEA6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4453,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4560,13 +4530,13 @@
         <v>147669</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>135</v>
@@ -4575,13 +4545,13 @@
         <v>133713</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>273</v>
@@ -4590,19 +4560,19 @@
         <v>281382</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>255</v>
@@ -4611,13 +4581,13 @@
         <v>271794</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -4626,13 +4596,13 @@
         <v>262042</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>524</v>
@@ -4641,13 +4611,13 @@
         <v>533836</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,13 +4632,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>404</v>
@@ -4677,13 +4647,13 @@
         <v>395755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>797</v>
@@ -4692,18 +4662,18 @@
         <v>815218</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4715,13 +4685,13 @@
         <v>216955</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>221</v>
@@ -4730,13 +4700,13 @@
         <v>216353</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>431</v>
@@ -4745,19 +4715,19 @@
         <v>433308</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>357</v>
@@ -4766,13 +4736,13 @@
         <v>373541</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>358</v>
@@ -4781,13 +4751,13 @@
         <v>347191</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>715</v>
@@ -4796,13 +4766,13 @@
         <v>720732</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4787,13 @@
         <v>590496</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>579</v>
@@ -4832,13 +4802,13 @@
         <v>563544</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1146</v>
@@ -4847,18 +4817,18 @@
         <v>1154040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4870,13 +4840,13 @@
         <v>223548</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>247</v>
@@ -4885,13 +4855,13 @@
         <v>249009</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>460</v>
@@ -4900,19 +4870,19 @@
         <v>472557</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>425</v>
@@ -4921,13 +4891,13 @@
         <v>445549</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>418</v>
@@ -4936,13 +4906,13 @@
         <v>412377</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>843</v>
@@ -4951,13 +4921,13 @@
         <v>857926</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4942,13 @@
         <v>669097</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>665</v>
@@ -4987,13 +4957,13 @@
         <v>661386</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1303</v>
@@ -5002,18 +4972,18 @@
         <v>1330483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5025,13 +4995,13 @@
         <v>251777</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>234</v>
@@ -5040,13 +5010,13 @@
         <v>255276</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>460</v>
@@ -5055,19 +5025,19 @@
         <v>507053</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>355</v>
@@ -5076,13 +5046,13 @@
         <v>393004</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -5091,13 +5061,13 @@
         <v>393801</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>723</v>
@@ -5106,13 +5076,13 @@
         <v>786805</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5097,13 @@
         <v>644781</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>602</v>
@@ -5142,13 +5112,13 @@
         <v>649077</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1183</v>
@@ -5157,18 +5127,18 @@
         <v>1293858</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5180,13 +5150,13 @@
         <v>177046</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>159</v>
@@ -5195,13 +5165,13 @@
         <v>185987</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>315</v>
@@ -5210,19 +5180,19 @@
         <v>363034</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>268</v>
@@ -5231,13 +5201,13 @@
         <v>300872</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>274</v>
@@ -5246,13 +5216,13 @@
         <v>310862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>542</v>
@@ -5261,13 +5231,13 @@
         <v>611733</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5252,13 @@
         <v>477918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>433</v>
@@ -5297,13 +5267,13 @@
         <v>496849</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>857</v>
@@ -5312,18 +5282,18 @@
         <v>974767</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5335,13 +5305,13 @@
         <v>203816</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>286</v>
       </c>
       <c r="H19" s="7">
         <v>217</v>
@@ -5350,13 +5320,13 @@
         <v>256528</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
         <v>429</v>
@@ -5365,19 +5335,19 @@
         <v>460344</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>415</v>
@@ -5386,13 +5356,13 @@
         <v>387512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H20" s="7">
         <v>436</v>
@@ -5401,13 +5371,13 @@
         <v>519097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>292</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>851</v>
@@ -5416,13 +5386,13 @@
         <v>906609</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,13 +5407,13 @@
         <v>591328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>653</v>
@@ -5452,13 +5422,13 @@
         <v>775625</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1280</v>
@@ -5467,13 +5437,13 @@
         <v>1366953</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5460,13 @@
         <v>1220811</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>163</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>1213</v>
@@ -5505,13 +5475,13 @@
         <v>1296867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M22" s="7">
         <v>2368</v>
@@ -5520,19 +5490,19 @@
         <v>2517677</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>235</v>
+        <v>372</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>2075</v>
@@ -5541,13 +5511,13 @@
         <v>2172272</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>173</v>
+        <v>374</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H23" s="7">
         <v>2123</v>
@@ -5556,13 +5526,13 @@
         <v>2245369</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M23" s="7">
         <v>4198</v>
@@ -5571,13 +5541,13 @@
         <v>4417642</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>379</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5562,13 @@
         <v>3393083</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>3336</v>
@@ -5607,13 +5577,13 @@
         <v>3542236</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>6566</v>
@@ -5622,18 +5592,18 @@
         <v>6935319</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5655,7 +5625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7392F29A-14DC-41FE-A582-BEBAA5B97790}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F8ABAC-A2BC-4667-A07C-A2B0F0DD7A74}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5672,7 +5642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5779,13 +5749,13 @@
         <v>67973</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -5794,13 +5764,13 @@
         <v>89555</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>79</v>
@@ -5809,19 +5779,19 @@
         <v>157528</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>141</v>
@@ -5830,13 +5800,13 @@
         <v>309706</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="H5" s="7">
         <v>159</v>
@@ -5845,13 +5815,13 @@
         <v>265402</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>300</v>
@@ -5860,13 +5830,13 @@
         <v>575108</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,13 +5851,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -5896,13 +5866,13 @@
         <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -5911,18 +5881,18 @@
         <v>732636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5934,13 +5904,13 @@
         <v>74824</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -5949,13 +5919,13 @@
         <v>101166</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>144</v>
@@ -5964,19 +5934,19 @@
         <v>175990</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>250</v>
@@ -5985,13 +5955,13 @@
         <v>353572</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>369</v>
@@ -6000,13 +5970,13 @@
         <v>398049</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>619</v>
@@ -6015,13 +5985,13 @@
         <v>751621</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,13 +6006,13 @@
         <v>428396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>461</v>
@@ -6051,13 +6021,13 @@
         <v>499215</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>763</v>
@@ -6066,18 +6036,18 @@
         <v>927611</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6089,13 +6059,13 @@
         <v>118381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>165</v>
@@ -6104,13 +6074,13 @@
         <v>116804</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>276</v>
@@ -6119,19 +6089,19 @@
         <v>235185</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>433</v>
@@ -6140,13 +6110,13 @@
         <v>438551</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="H11" s="7">
         <v>682</v>
@@ -6155,13 +6125,13 @@
         <v>492865</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>1115</v>
@@ -6170,13 +6140,13 @@
         <v>931416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6161,13 @@
         <v>556932</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>847</v>
@@ -6206,13 +6176,13 @@
         <v>609669</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1391</v>
@@ -6221,18 +6191,18 @@
         <v>1166601</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6244,13 +6214,13 @@
         <v>142861</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
@@ -6259,13 +6229,13 @@
         <v>157769</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>366</v>
@@ -6274,19 +6244,19 @@
         <v>300630</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>530</v>
@@ -6295,13 +6265,13 @@
         <v>581129</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>910</v>
@@ -6310,28 +6280,28 @@
         <v>589492</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>1440</v>
       </c>
       <c r="N14" s="7">
-        <v>1170621</v>
+        <v>1170622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6316,13 @@
         <v>723990</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>1141</v>
@@ -6361,33 +6331,33 @@
         <v>747261</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6399,13 +6369,13 @@
         <v>98540</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>198</v>
@@ -6414,13 +6384,13 @@
         <v>125418</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>310</v>
@@ -6429,19 +6399,19 @@
         <v>223958</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>551</v>
@@ -6450,13 +6420,13 @@
         <v>501617</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H17" s="7">
         <v>803</v>
@@ -6465,13 +6435,13 @@
         <v>470983</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="M17" s="7">
         <v>1354</v>
@@ -6480,13 +6450,13 @@
         <v>972600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +6471,13 @@
         <v>600157</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>1001</v>
@@ -6516,13 +6486,13 @@
         <v>596401</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1664</v>
@@ -6531,18 +6501,18 @@
         <v>1196558</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6554,13 +6524,13 @@
         <v>113591</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>268</v>
@@ -6569,13 +6539,13 @@
         <v>261736</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="M19" s="7">
         <v>438</v>
@@ -6584,34 +6554,34 @@
         <v>375327</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>858</v>
       </c>
       <c r="D20" s="7">
-        <v>584164</v>
+        <v>584163</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="H20" s="7">
         <v>1440</v>
@@ -6620,13 +6590,13 @@
         <v>764901</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="M20" s="7">
         <v>2298</v>
@@ -6635,13 +6605,13 @@
         <v>1349065</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,16 +6623,16 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>1708</v>
@@ -6671,13 +6641,13 @@
         <v>1026637</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>2736</v>
@@ -6686,13 +6656,13 @@
         <v>1724392</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6679,13 @@
         <v>616170</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="H22" s="7">
         <v>1002</v>
@@ -6724,13 +6694,13 @@
         <v>852448</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
         <v>1613</v>
@@ -6739,19 +6709,19 @@
         <v>1468618</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>2763</v>
@@ -6760,13 +6730,13 @@
         <v>2768738</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="H23" s="7">
         <v>4363</v>
@@ -6775,13 +6745,13 @@
         <v>2981692</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="M23" s="7">
         <v>7126</v>
@@ -6790,13 +6760,13 @@
         <v>5750430</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,13 +6781,13 @@
         <v>3384908</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>5365</v>
@@ -6826,13 +6796,13 @@
         <v>3834140</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>8739</v>
@@ -6841,18 +6811,18 @@
         <v>7219048</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P5_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{568207BE-6632-4A04-8A34-62E0E5C8819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00122926-1F70-41CC-8658-2275D1CFF409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{535CFF46-D28B-43BA-9499-906E3BBD87D3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C6601971-E48A-4107-8C94-7EE0525B2293}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="575">
   <si>
     <t>Población que tiene algún problema medioambiental en la zona de residencia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -128,7 +128,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>27,93%</t>
@@ -185,7 +185,7 @@
     <t>72,73%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>29,95%</t>
@@ -242,7 +242,7 @@
     <t>68,57%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>32,61%</t>
@@ -299,7 +299,7 @@
     <t>68,7%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>30,29%</t>
@@ -356,55 +356,118 @@
     <t>69,85%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
   </si>
   <si>
     <t>29,52%</t>
@@ -731,415 +794,529 @@
     <t>62,23%</t>
   </si>
   <si>
-    <t>40,86%</t>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
   </si>
   <si>
     <t>36,44%</t>
   </si>
   <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
   </si>
   <si>
     <t>63,56%</t>
   </si>
   <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2016 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
   </si>
   <si>
     <t>35,98%</t>
@@ -1187,376 +1364,406 @@
     <t>Población que tiene algún problema medioambiental en la zona de residencia en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
 </sst>
 </file>
@@ -1968,8 +2175,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56490889-724B-4586-B10F-C0078B3ACC6E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DB356D-E8BA-4C45-A059-37CCEC5A1BAF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2861,10 +3068,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="D19" s="7">
-        <v>139728</v>
+        <v>80690</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2876,34 +3083,34 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="I19" s="7">
-        <v>214765</v>
+        <v>116616</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>360</v>
+        <v>213</v>
       </c>
       <c r="N19" s="7">
-        <v>354493</v>
+        <v>197306</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,49 +3119,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>373</v>
+        <v>216</v>
       </c>
       <c r="D20" s="7">
-        <v>362738</v>
+        <v>211893</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>451</v>
+        <v>245</v>
       </c>
       <c r="I20" s="7">
-        <v>462077</v>
+        <v>226318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>824</v>
+        <v>461</v>
       </c>
       <c r="N20" s="7">
-        <v>824815</v>
+        <v>438211</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,10 +3170,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -2978,10 +3185,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -2993,10 +3200,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -3010,55 +3217,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>939</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7">
-        <v>967379</v>
+        <v>59038</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>1129</v>
+        <v>84</v>
       </c>
       <c r="I22" s="7">
-        <v>1162691</v>
+        <v>98149</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>2068</v>
+        <v>147</v>
       </c>
       <c r="N22" s="7">
-        <v>2130069</v>
+        <v>157187</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,49 +3274,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2275</v>
+        <v>157</v>
       </c>
       <c r="D23" s="7">
-        <v>2309165</v>
+        <v>150845</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>2168</v>
+        <v>206</v>
       </c>
       <c r="I23" s="7">
-        <v>2216507</v>
+        <v>235759</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>4443</v>
+        <v>363</v>
       </c>
       <c r="N23" s="7">
-        <v>4525671</v>
+        <v>386604</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,63 +3325,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>939</v>
+      </c>
+      <c r="D25" s="7">
+        <v>967378</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1129</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1162691</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2068</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2130069</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2275</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2309165</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2168</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2216506</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4443</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4525672</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3187,8 +3550,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C27F8C-67CA-4DB5-9A1E-199D1B54C43F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A182D033-1919-47EC-86EB-12F9A18A607E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3204,7 +3567,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3311,13 +3674,13 @@
         <v>163870</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>154</v>
@@ -3326,13 +3689,13 @@
         <v>157912</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>317</v>
@@ -3341,13 +3704,13 @@
         <v>321782</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,13 +3725,13 @@
         <v>289324</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>266</v>
@@ -3377,13 +3740,13 @@
         <v>271304</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>548</v>
@@ -3392,13 +3755,13 @@
         <v>560628</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3829,13 @@
         <v>271972</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>220</v>
@@ -3481,13 +3844,13 @@
         <v>232271</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>476</v>
@@ -3496,13 +3859,13 @@
         <v>504242</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3880,13 @@
         <v>413572</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>351</v>
@@ -3532,13 +3895,13 @@
         <v>377984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>761</v>
@@ -3547,13 +3910,13 @@
         <v>791557</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,28 +3984,28 @@
         <v>261567</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>273</v>
       </c>
       <c r="I10" s="7">
-        <v>287586</v>
+        <v>287587</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>526</v>
@@ -3651,13 +4014,13 @@
         <v>549153</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +4035,13 @@
         <v>419569</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>393</v>
@@ -3687,13 +4050,13 @@
         <v>421544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>790</v>
@@ -3702,13 +4065,13 @@
         <v>841113</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,7 +4098,7 @@
         <v>666</v>
       </c>
       <c r="I12" s="7">
-        <v>709130</v>
+        <v>709131</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -3776,13 +4139,13 @@
         <v>246365</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>234</v>
@@ -3791,13 +4154,13 @@
         <v>269027</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>460</v>
@@ -3806,13 +4169,13 @@
         <v>515392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +4190,13 @@
         <v>367228</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>304</v>
@@ -3842,13 +4205,13 @@
         <v>346111</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>625</v>
@@ -3857,13 +4220,13 @@
         <v>713339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +4294,13 @@
         <v>186692</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
@@ -3946,13 +4309,13 @@
         <v>175410</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>333</v>
@@ -3961,13 +4324,13 @@
         <v>362102</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +4345,13 @@
         <v>242737</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>246</v>
@@ -3997,28 +4360,28 @@
         <v>270332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>464</v>
       </c>
       <c r="N17" s="7">
-        <v>513070</v>
+        <v>513069</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,7 +4423,7 @@
         <v>797</v>
       </c>
       <c r="N18" s="7">
-        <v>875172</v>
+        <v>875171</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -4080,49 +4443,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="D19" s="7">
-        <v>228168</v>
+        <v>136418</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
-        <v>274</v>
+        <v>136</v>
       </c>
       <c r="I19" s="7">
-        <v>293387</v>
+        <v>141889</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
-        <v>481</v>
+        <v>260</v>
       </c>
       <c r="N19" s="7">
-        <v>521556</v>
+        <v>278307</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,49 +4494,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="D20" s="7">
-        <v>330301</v>
+        <v>173368</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
-        <v>420</v>
+        <v>208</v>
       </c>
       <c r="I20" s="7">
-        <v>449588</v>
+        <v>212107</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>716</v>
+        <v>366</v>
       </c>
       <c r="N20" s="7">
-        <v>779888</v>
+        <v>385475</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,10 +4545,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>503</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>558469</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -4197,10 +4560,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -4212,10 +4575,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301444</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -4229,55 +4592,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1280</v>
+        <v>83</v>
       </c>
       <c r="D22" s="7">
-        <v>1358635</v>
+        <v>91750</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
-        <v>1313</v>
+        <v>138</v>
       </c>
       <c r="I22" s="7">
-        <v>1415593</v>
+        <v>151498</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
-        <v>2593</v>
+        <v>221</v>
       </c>
       <c r="N22" s="7">
-        <v>2774228</v>
+        <v>243248</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,49 +4649,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>1924</v>
+        <v>138</v>
       </c>
       <c r="D23" s="7">
-        <v>2062730</v>
+        <v>156933</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
-        <v>1980</v>
+        <v>212</v>
       </c>
       <c r="I23" s="7">
-        <v>2136865</v>
+        <v>237481</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
-        <v>3904</v>
+        <v>350</v>
       </c>
       <c r="N23" s="7">
-        <v>4199595</v>
+        <v>394414</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,63 +4700,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>248683</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637662</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1280</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1358635</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1313</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1415593</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2593</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2774228</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1924</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2062730</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1980</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2136865</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3904</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4199595</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3204</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3421365</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3293</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3552458</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6497</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6973823</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4406,8 +4925,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E76C5A-DBF8-4766-B707-D5ADE886DEA6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DAD762-82A4-4AFE-8F08-D0B72DC0AB15}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4423,7 +4942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4530,13 +5049,13 @@
         <v>147669</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>135</v>
@@ -4545,13 +5064,13 @@
         <v>133713</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>273</v>
@@ -4560,13 +5079,13 @@
         <v>281382</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +5100,13 @@
         <v>271794</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -4596,13 +5115,13 @@
         <v>262042</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>524</v>
@@ -4611,13 +5130,13 @@
         <v>533836</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +5204,13 @@
         <v>216955</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>221</v>
@@ -4700,13 +5219,13 @@
         <v>216353</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>431</v>
@@ -4715,13 +5234,13 @@
         <v>433308</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +5255,13 @@
         <v>373541</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>358</v>
@@ -4751,13 +5270,13 @@
         <v>347191</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>715</v>
@@ -4766,13 +5285,13 @@
         <v>720732</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +5359,13 @@
         <v>223548</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>247</v>
@@ -4855,13 +5374,13 @@
         <v>249009</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>460</v>
@@ -4870,13 +5389,13 @@
         <v>472557</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +5410,13 @@
         <v>445549</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>418</v>
@@ -4906,13 +5425,13 @@
         <v>412377</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>843</v>
@@ -4921,13 +5440,13 @@
         <v>857926</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,13 +5514,13 @@
         <v>251777</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>234</v>
@@ -5010,13 +5529,13 @@
         <v>255276</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>460</v>
@@ -5025,13 +5544,13 @@
         <v>507053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5565,13 @@
         <v>393004</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -5061,13 +5580,13 @@
         <v>393801</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>723</v>
@@ -5076,13 +5595,13 @@
         <v>786805</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5669,13 @@
         <v>177046</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>159</v>
@@ -5165,13 +5684,13 @@
         <v>185987</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>315</v>
@@ -5183,10 +5702,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5720,13 @@
         <v>300872</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>274</v>
@@ -5216,13 +5735,13 @@
         <v>310862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>542</v>
@@ -5234,10 +5753,10 @@
         <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,49 +5818,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="D19" s="7">
-        <v>203816</v>
+        <v>128527</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>286</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="I19" s="7">
-        <v>256528</v>
+        <v>137293</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>283</v>
+        <v>397</v>
       </c>
       <c r="M19" s="7">
-        <v>429</v>
+        <v>251</v>
       </c>
       <c r="N19" s="7">
-        <v>460344</v>
+        <v>265820</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,49 +5869,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>415</v>
+        <v>201</v>
       </c>
       <c r="D20" s="7">
-        <v>387512</v>
+        <v>205803</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>295</v>
+        <v>402</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="H20" s="7">
-        <v>436</v>
+        <v>226</v>
       </c>
       <c r="I20" s="7">
-        <v>519097</v>
+        <v>239434</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>405</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="M20" s="7">
-        <v>851</v>
+        <v>427</v>
       </c>
       <c r="N20" s="7">
-        <v>906609</v>
+        <v>445237</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,10 +5920,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -5416,10 +5935,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>653</v>
+        <v>353</v>
       </c>
       <c r="I21" s="7">
-        <v>775625</v>
+        <v>376727</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -5431,10 +5950,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1280</v>
+        <v>678</v>
       </c>
       <c r="N21" s="7">
-        <v>1366953</v>
+        <v>711057</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -5448,55 +5967,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1155</v>
+        <v>88</v>
       </c>
       <c r="D22" s="7">
-        <v>1220811</v>
+        <v>75289</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="H22" s="7">
-        <v>1213</v>
+        <v>90</v>
       </c>
       <c r="I22" s="7">
-        <v>1296867</v>
+        <v>119236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
-        <v>2368</v>
+        <v>178</v>
       </c>
       <c r="N22" s="7">
-        <v>2517677</v>
+        <v>194524</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>340</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,49 +6024,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2075</v>
+        <v>214</v>
       </c>
       <c r="D23" s="7">
-        <v>2172272</v>
+        <v>181709</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="H23" s="7">
-        <v>2123</v>
+        <v>210</v>
       </c>
       <c r="I23" s="7">
-        <v>2245369</v>
+        <v>279662</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="M23" s="7">
-        <v>4198</v>
+        <v>424</v>
       </c>
       <c r="N23" s="7">
-        <v>4417642</v>
+        <v>461372</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>348</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,63 +6075,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>300</v>
+      </c>
+      <c r="I24" s="7">
+        <v>398898</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>602</v>
+      </c>
+      <c r="N24" s="7">
+        <v>655896</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1155</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1220811</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1213</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1296867</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2368</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2517677</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2075</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2172272</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2123</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2245369</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4198</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4417642</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3230</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3393083</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3336</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3542236</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6566</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6935319</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5625,8 +6300,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F8ABAC-A2BC-4667-A07C-A2B0F0DD7A74}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A0A72D-D33D-4E03-945D-2DB8C2C8E18D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5642,7 +6317,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5746,46 +6421,46 @@
         <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>67973</v>
+        <v>70154</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>443</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
       </c>
       <c r="I4" s="7">
-        <v>89555</v>
+        <v>78095</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>446</v>
       </c>
       <c r="M4" s="7">
         <v>79</v>
       </c>
       <c r="N4" s="7">
-        <v>157528</v>
+        <v>148248</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>387</v>
+        <v>447</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>388</v>
+        <v>448</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>389</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,46 +6472,46 @@
         <v>141</v>
       </c>
       <c r="D5" s="7">
-        <v>309706</v>
+        <v>329833</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="H5" s="7">
         <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>265402</v>
+        <v>235105</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>454</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="M5" s="7">
         <v>300</v>
       </c>
       <c r="N5" s="7">
-        <v>575108</v>
+        <v>564939</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>395</v>
+        <v>456</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>396</v>
+        <v>457</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,7 +6523,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -5863,7 +6538,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -5878,7 +6553,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -5901,46 +6576,46 @@
         <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>74824</v>
+        <v>74094</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>460</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
       </c>
       <c r="I7" s="7">
-        <v>101166</v>
+        <v>90479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>462</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>144</v>
       </c>
       <c r="N7" s="7">
-        <v>175990</v>
+        <v>164573</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,46 +6627,46 @@
         <v>250</v>
       </c>
       <c r="D8" s="7">
-        <v>353572</v>
+        <v>349453</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="H8" s="7">
         <v>369</v>
       </c>
       <c r="I8" s="7">
-        <v>398049</v>
+        <v>421614</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="M8" s="7">
         <v>619</v>
       </c>
       <c r="N8" s="7">
-        <v>751621</v>
+        <v>771067</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,7 +6678,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -6018,7 +6693,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -6033,7 +6708,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -6056,46 +6731,46 @@
         <v>111</v>
       </c>
       <c r="D10" s="7">
-        <v>118381</v>
+        <v>113343</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="H10" s="7">
         <v>165</v>
       </c>
       <c r="I10" s="7">
-        <v>116804</v>
+        <v>107179</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="M10" s="7">
         <v>276</v>
       </c>
       <c r="N10" s="7">
-        <v>235185</v>
+        <v>220522</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,46 +6782,46 @@
         <v>433</v>
       </c>
       <c r="D11" s="7">
-        <v>438551</v>
+        <v>422667</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
       <c r="H11" s="7">
         <v>682</v>
       </c>
       <c r="I11" s="7">
-        <v>492865</v>
+        <v>484093</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="M11" s="7">
         <v>1115</v>
       </c>
       <c r="N11" s="7">
-        <v>931416</v>
+        <v>906760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,7 +6833,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="7">
-        <v>556932</v>
+        <v>536010</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -6173,7 +6848,7 @@
         <v>847</v>
       </c>
       <c r="I12" s="7">
-        <v>609669</v>
+        <v>591272</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -6188,7 +6863,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1166601</v>
+        <v>1127282</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -6211,46 +6886,46 @@
         <v>135</v>
       </c>
       <c r="D13" s="7">
-        <v>142861</v>
+        <v>139403</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>231</v>
       </c>
       <c r="I13" s="7">
-        <v>157769</v>
+        <v>144886</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="M13" s="7">
         <v>366</v>
       </c>
       <c r="N13" s="7">
-        <v>300630</v>
+        <v>284290</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,46 +6937,46 @@
         <v>530</v>
       </c>
       <c r="D14" s="7">
-        <v>581129</v>
+        <v>748383</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="H14" s="7">
         <v>910</v>
       </c>
       <c r="I14" s="7">
-        <v>589492</v>
+        <v>567995</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>1440</v>
       </c>
       <c r="N14" s="7">
-        <v>1170622</v>
+        <v>1316377</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,7 +6988,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -6328,7 +7003,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -6343,7 +7018,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -6366,46 +7041,46 @@
         <v>112</v>
       </c>
       <c r="D16" s="7">
-        <v>98540</v>
+        <v>91966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="H16" s="7">
         <v>198</v>
       </c>
       <c r="I16" s="7">
-        <v>125418</v>
+        <v>114233</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="M16" s="7">
         <v>310</v>
       </c>
       <c r="N16" s="7">
-        <v>223958</v>
+        <v>206199</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,46 +7092,46 @@
         <v>551</v>
       </c>
       <c r="D17" s="7">
-        <v>501617</v>
+        <v>469268</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7">
         <v>803</v>
       </c>
       <c r="I17" s="7">
-        <v>470983</v>
+        <v>433060</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="M17" s="7">
         <v>1354</v>
       </c>
       <c r="N17" s="7">
-        <v>972600</v>
+        <v>902327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +7143,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -6483,7 +7158,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>596401</v>
+        <v>547293</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -6498,7 +7173,7 @@
         <v>1664</v>
       </c>
       <c r="N18" s="7">
-        <v>1196558</v>
+        <v>1108526</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -6518,49 +7193,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D19" s="7">
-        <v>113591</v>
+        <v>64635</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="H19" s="7">
-        <v>268</v>
+        <v>139</v>
       </c>
       <c r="I19" s="7">
-        <v>261736</v>
+        <v>273695</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="M19" s="7">
-        <v>438</v>
+        <v>243</v>
       </c>
       <c r="N19" s="7">
-        <v>375327</v>
+        <v>338330</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,49 +7244,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>858</v>
+        <v>466</v>
       </c>
       <c r="D20" s="7">
-        <v>584163</v>
+        <v>303530</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="H20" s="7">
-        <v>1440</v>
+        <v>688</v>
       </c>
       <c r="I20" s="7">
-        <v>764901</v>
+        <v>334673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="M20" s="7">
-        <v>2298</v>
+        <v>1154</v>
       </c>
       <c r="N20" s="7">
-        <v>1349065</v>
+        <v>638203</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,10 +7295,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -6635,10 +7310,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -6650,10 +7325,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -6667,55 +7342,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>611</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7">
-        <v>616170</v>
+        <v>41005</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
-        <v>1002</v>
+        <v>129</v>
       </c>
       <c r="I22" s="7">
-        <v>852448</v>
+        <v>66518</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>543</v>
       </c>
       <c r="M22" s="7">
-        <v>1613</v>
+        <v>195</v>
       </c>
       <c r="N22" s="7">
-        <v>1468618</v>
+        <v>107523</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>546</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>547</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,49 +7399,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2763</v>
+        <v>392</v>
       </c>
       <c r="D23" s="7">
-        <v>2768738</v>
+        <v>241754</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
       <c r="H23" s="7">
-        <v>4363</v>
+        <v>752</v>
       </c>
       <c r="I23" s="7">
-        <v>2981692</v>
+        <v>359313</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="M23" s="7">
-        <v>7126</v>
+        <v>1144</v>
       </c>
       <c r="N23" s="7">
-        <v>5750430</v>
+        <v>601067</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>505</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,63 +7450,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>611</v>
+      </c>
+      <c r="D25" s="7">
+        <v>594599</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1002</v>
+      </c>
+      <c r="I25" s="7">
+        <v>875086</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1613</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1469685</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2763</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2864890</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4363</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2835852</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7126</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5700741</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384908</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459489</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>5365</v>
       </c>
-      <c r="I24" s="7">
-        <v>3834140</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3710938</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>8739</v>
       </c>
-      <c r="N24" s="7">
-        <v>7219048</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7170426</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
